--- a/Mifos Automation Excels/Loan Product/7-RBI-EI-DB-DL-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/7-RBI-EI-DB-DL-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -131,12 +131,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Reduce number of installments</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>7-A</t>
   </si>
   <si>
-    <t>RBI (India) - Equal Installment - Declining Balance - Enable interest recalculation - None - Advance payment Reduce number of installments - preclosure Calculate till rest frequency date - Same as repayment - Multi disbursement - 1 - Repay on exact due date</t>
-  </si>
-  <si>
     <t>7RBI-EI-DB-DL-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME</t>
   </si>
   <si>
@@ -225,6 +216,15 @@
   </si>
   <si>
     <t>Calculate till rest frequency date</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
+  </si>
+  <si>
+    <t>7A</t>
   </si>
 </sst>
 </file>
@@ -282,25 +282,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -312,10 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -618,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -630,340 +619,334 @@
     <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>41275</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>54</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="13">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -985,11 +968,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>67</v>
+      <c r="A1" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/7-RBI-EI-DB-DL-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/7-RBI-EI-DB-DL-REC-NOCOM-RNI-CTRFD-SAR-MD-TR-1-ONTIME-Loanproduct.xlsx
@@ -179,9 +179,6 @@
     <t>nominalinterestratedefault</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>Equal installments</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>7A</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -661,10 +661,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -760,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,10 +789,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -816,12 +816,12 @@
         <v>35</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>20</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="8">
         <v>2</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="8">
         <v>10000</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>20</v>
@@ -969,10 +969,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
